--- a/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
+++ b/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
@@ -455,16 +455,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>159</v>
+        <v>123.123</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>456.159</v>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>789.123</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>741.852</v>
       </c>
     </row>
   </sheetData>

--- a/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
+++ b/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
@@ -455,16 +455,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123.123</v>
+        <v>123</v>
       </c>
       <c r="B2" t="n">
-        <v>456.159</v>
+        <v>456</v>
       </c>
       <c r="C2" t="n">
-        <v>789.123</v>
+        <v>789</v>
       </c>
       <c r="D2" t="n">
-        <v>741.852</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
+++ b/Azimuth Calculator/modules/manually_provided_coordinates.xlsx
@@ -455,16 +455,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>789</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
